--- a/ch2/input/monthly_sales.xlsx
+++ b/ch2/input/monthly_sales.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automation_python\source\src\ch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2F7EA-9CC4-448E-BE15-E98F50ACAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DE5CE-1BD3-4874-918C-C5CEB8E4FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2205" windowWidth="20880" windowHeight="11775" xr2:uid="{CAA769DC-F8D3-41AE-879A-8DF8AB553414}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{D420BA4F-AA01-2B4D-A3E3-59CB01FF98CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3月" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,119 +34,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>가격</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネダｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>소계</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショウケイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>거래처</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウニュウシャ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コスウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒンモク </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
   <si>
     <t>3월 매출 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가격 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 7일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 15일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 16일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ガツキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ウリアゲ イチラｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>김승호</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イトウジロウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>노명환</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤｍダ シロウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>이영자</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤマシタ ゴロウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>박혜리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강승호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>최원필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노명환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김승호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이영자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニシカワ サブロウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,12 +217,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,27 +245,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,182 +608,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B39CA-571F-4A78-845E-C7BB6DA818A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3ACA7D-B0D4-3646-8349-0146B823C8FC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>1000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
+        <f>D3*E3</f>
         <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6">
+        <v>43895</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>1500</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6">
+        <v>43895</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>2000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" s="6">
+        <v>43897</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>1000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="6">
+        <v>43905</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>1500</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="A8" s="6">
+        <v>43906</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="6">
+        <v>43910</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>5700</v>
       </c>
     </row>
@@ -702,7 +805,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>